--- a/GMMHMM/grupo2/X_train.xlsx
+++ b/GMMHMM/grupo2/X_train.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>RMS</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>ADIm11</t>
+  </si>
+  <si>
+    <t>target</t>
   </si>
 </sst>
 </file>
@@ -456,50 +459,52 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1"/>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B2">
-        <v>-1.068626904</v>
+        <v>1.111873914411102</v>
       </c>
       <c r="C2">
-        <v>-1.177462654</v>
+        <v>1.135793163195995</v>
       </c>
       <c r="D2">
-        <v>-0.637012483</v>
+        <v>1.424833272127394</v>
       </c>
       <c r="E2">
-        <v>-0.8862055559999999</v>
+        <v>1.169974850453093</v>
       </c>
       <c r="F2">
-        <v>-0.600567384</v>
+        <v>1.07211775792644</v>
       </c>
       <c r="G2">
-        <v>-0.866692723</v>
+        <v>1.216480618538284</v>
       </c>
       <c r="H2">
-        <v>-0.9384118490000001</v>
+        <v>0.09814133965867791</v>
       </c>
       <c r="I2">
-        <v>-1.147771492</v>
+        <v>0.02747385702503116</v>
       </c>
       <c r="J2">
-        <v>-0.832718353</v>
+        <v>0.2485631743415042</v>
       </c>
       <c r="K2">
-        <v>-1.59553819</v>
+        <v>1.059080512462944</v>
       </c>
       <c r="L2">
-        <v>-1.080752722</v>
+        <v>1.042300000049835</v>
       </c>
       <c r="M2">
-        <v>-1.420672209</v>
+        <v>1.05954576174355</v>
       </c>
       <c r="N2">
-        <v>-0.7131277290000001</v>
+        <v>0.7737219311159356</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -507,46 +512,46 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-1.016290052</v>
+        <v>-1.162809267</v>
       </c>
       <c r="C3">
-        <v>-1.133024236</v>
+        <v>-1.230742598</v>
       </c>
       <c r="D3">
-        <v>-0.635789131</v>
+        <v>-0.481548895</v>
       </c>
       <c r="E3">
-        <v>-1.015817466</v>
+        <v>-0.48584958</v>
       </c>
       <c r="F3">
-        <v>-0.9008444240000001</v>
+        <v>-0.43719234</v>
       </c>
       <c r="G3">
-        <v>-0.879235903</v>
+        <v>0.114115978</v>
       </c>
       <c r="H3">
-        <v>-0.849447079</v>
+        <v>-0.77417708</v>
       </c>
       <c r="I3">
-        <v>-0.662643584</v>
+        <v>-1.367703306</v>
       </c>
       <c r="J3">
-        <v>-0.5526130260000001</v>
+        <v>-0.7770090820000001</v>
       </c>
       <c r="K3">
-        <v>-1.80799683</v>
+        <v>-0.805050077</v>
       </c>
       <c r="L3">
-        <v>-1.099061748</v>
+        <v>-0.044871051</v>
       </c>
       <c r="M3">
-        <v>-1.238844534</v>
+        <v>0.152162831</v>
       </c>
       <c r="N3">
-        <v>-0.6743864279999999</v>
+        <v>0.264317159</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -554,46 +559,46 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.078267607</v>
+        <v>1.121235075000633</v>
       </c>
       <c r="C4">
-        <v>0.147016056</v>
+        <v>1.109425967667389</v>
       </c>
       <c r="D4">
-        <v>-0.099193434</v>
+        <v>-0.6138666626790811</v>
       </c>
       <c r="E4">
-        <v>-0.9932849579999999</v>
+        <v>-1.140565044931044</v>
       </c>
       <c r="F4">
-        <v>-0.36166605</v>
+        <v>-1.684657547361385</v>
       </c>
       <c r="G4">
-        <v>0.204833342</v>
+        <v>-0.1381822483695343</v>
       </c>
       <c r="H4">
-        <v>-0.837582409</v>
+        <v>0.06134975447229608</v>
       </c>
       <c r="I4">
-        <v>-0.6419876839999999</v>
+        <v>0.2542060914434533</v>
       </c>
       <c r="J4">
-        <v>-0.254815942</v>
+        <v>-0.09482126052636916</v>
       </c>
       <c r="K4">
-        <v>-0.379259574</v>
+        <v>-0.8930103801575155</v>
       </c>
       <c r="L4">
-        <v>-1.062085395</v>
+        <v>-2.183185108871045</v>
       </c>
       <c r="M4">
-        <v>-1.581943415</v>
+        <v>-2.563571615586921</v>
       </c>
       <c r="N4">
-        <v>-1.785023628</v>
+        <v>-2.367279573503121</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -601,140 +606,140 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="B5">
-        <v>-0.919401809</v>
+        <v>-0.8931114177348635</v>
       </c>
       <c r="C5">
-        <v>-0.9502995000000001</v>
+        <v>-0.8828198226551792</v>
       </c>
       <c r="D5">
-        <v>0.198061398</v>
+        <v>-0.5162736400894987</v>
       </c>
       <c r="E5">
-        <v>1.090531976</v>
+        <v>-0.8339259671995483</v>
       </c>
       <c r="F5">
-        <v>1.591912741</v>
+        <v>-0.7874364856480246</v>
       </c>
       <c r="G5">
-        <v>1.419771212</v>
+        <v>-1.2526893198223</v>
       </c>
       <c r="H5">
-        <v>1.685263614</v>
+        <v>-1.001166414551514</v>
       </c>
       <c r="I5">
-        <v>1.31493522</v>
+        <v>-0.9404870286432507</v>
       </c>
       <c r="J5">
-        <v>1.427681665</v>
+        <v>-0.6866717003360699</v>
       </c>
       <c r="K5">
-        <v>1.688971273</v>
+        <v>-1.906229442642518</v>
       </c>
       <c r="L5">
-        <v>1.432602503</v>
+        <v>-0.6763624638504624</v>
       </c>
       <c r="M5">
-        <v>1.113826339</v>
+        <v>-0.7522836163292569</v>
       </c>
       <c r="N5">
-        <v>0.896996784</v>
+        <v>-0.4823731321358291</v>
       </c>
       <c r="O5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.8876501720000001</v>
+        <v>1.068282978454066</v>
       </c>
       <c r="C6">
-        <v>-0.908138041</v>
+        <v>1.086827571115874</v>
       </c>
       <c r="D6">
-        <v>-0.181597316</v>
+        <v>-0.2830771045654332</v>
       </c>
       <c r="E6">
-        <v>0.6949742370000001</v>
+        <v>-0.5775421200673674</v>
       </c>
       <c r="F6">
-        <v>0.9543306</v>
+        <v>0.1077360276293435</v>
       </c>
       <c r="G6">
-        <v>0.9867759220000001</v>
+        <v>0.1041029176906046</v>
       </c>
       <c r="H6">
-        <v>1.113308493</v>
+        <v>0.1923087798717137</v>
       </c>
       <c r="I6">
-        <v>1.016984549</v>
+        <v>0.2894757767297265</v>
       </c>
       <c r="J6">
-        <v>0.938275137</v>
+        <v>0.5166036693310342</v>
       </c>
       <c r="K6">
-        <v>1.270326819</v>
+        <v>0.5516134326604308</v>
       </c>
       <c r="L6">
-        <v>0.959053618</v>
+        <v>-0.5481823527185627</v>
       </c>
       <c r="M6">
-        <v>0.63990935</v>
+        <v>-0.4214390128295122</v>
       </c>
       <c r="N6">
-        <v>0.50094562</v>
+        <v>-0.2891866838178406</v>
       </c>
       <c r="O6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.08004541599999999</v>
+        <v>1.11101831951367</v>
       </c>
       <c r="C7">
-        <v>0.153090252</v>
+        <v>1.134994486893495</v>
       </c>
       <c r="D7">
-        <v>1.080132873</v>
+        <v>1.558094706259092</v>
       </c>
       <c r="E7">
-        <v>0.8147941890000001</v>
+        <v>1.182122258676631</v>
       </c>
       <c r="F7">
-        <v>0.434401817</v>
+        <v>0.5146972750293143</v>
       </c>
       <c r="G7">
-        <v>0.335642876</v>
+        <v>0.4261623407223905</v>
       </c>
       <c r="H7">
-        <v>-0.464408387</v>
+        <v>-0.1170463277962</v>
       </c>
       <c r="I7">
-        <v>-1.079728083</v>
+        <v>-0.8045525614901342</v>
       </c>
       <c r="J7">
-        <v>-0.347979497</v>
+        <v>0.009614988172893092</v>
       </c>
       <c r="K7">
-        <v>-0.425076511</v>
+        <v>-0.04035993187596632</v>
       </c>
       <c r="L7">
-        <v>-0.5974756379999999</v>
+        <v>0.0856815309292434</v>
       </c>
       <c r="M7">
-        <v>0.09324355199999999</v>
+        <v>0.6815874680418703</v>
       </c>
       <c r="N7">
-        <v>0.022549287</v>
+        <v>0.4978273740649266</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -742,46 +747,46 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B8">
-        <v>-1.089660643</v>
+        <v>-1.019110682693921</v>
       </c>
       <c r="C8">
-        <v>-1.178580011</v>
+        <v>-0.9462027740215625</v>
       </c>
       <c r="D8">
-        <v>-0.5226126129999999</v>
+        <v>-1.364025248948709</v>
       </c>
       <c r="E8">
-        <v>-0.920424063</v>
+        <v>-1.657049290485308e-17</v>
       </c>
       <c r="F8">
-        <v>-0.625851896</v>
+        <v>-1.50205476331992</v>
       </c>
       <c r="G8">
-        <v>-0.8041183759999999</v>
+        <v>-0.565980522293658</v>
       </c>
       <c r="H8">
-        <v>-0.854413878</v>
+        <v>-0.1574555389130188</v>
       </c>
       <c r="I8">
-        <v>-0.8010182579999999</v>
+        <v>-0.07764614940710818</v>
       </c>
       <c r="J8">
-        <v>-0.711676256</v>
+        <v>0.02491940988305357</v>
       </c>
       <c r="K8">
-        <v>-1.711835175</v>
+        <v>-0.5072628523074543</v>
       </c>
       <c r="L8">
-        <v>-0.886450877</v>
+        <v>-0.9345188519821729</v>
       </c>
       <c r="M8">
-        <v>-0.944805067</v>
+        <v>-1.146234548203319</v>
       </c>
       <c r="N8">
-        <v>-0.312706292</v>
+        <v>-0.4841296379786051</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -789,46 +794,46 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>0.09262229</v>
+        <v>-0.9950186759999999</v>
       </c>
       <c r="C9">
-        <v>0.166849813</v>
+        <v>-1.14275891</v>
       </c>
       <c r="D9">
-        <v>1.013467251</v>
+        <v>-0.8379565390000001</v>
       </c>
       <c r="E9">
-        <v>0.710182213</v>
+        <v>-1.356096241</v>
       </c>
       <c r="F9">
-        <v>0.74741344</v>
+        <v>-1.482855771</v>
       </c>
       <c r="G9">
-        <v>1.172226426</v>
+        <v>-0.116152378</v>
       </c>
       <c r="H9">
-        <v>-0.180912516</v>
+        <v>-1.960741118</v>
       </c>
       <c r="I9">
-        <v>-0.202452089</v>
+        <v>-2.808609729</v>
       </c>
       <c r="J9">
-        <v>0.083697221</v>
+        <v>-1.937638123</v>
       </c>
       <c r="K9">
-        <v>0.831453852</v>
+        <v>-2.478579661</v>
       </c>
       <c r="L9">
-        <v>0.707020807</v>
+        <v>-1.538677731</v>
       </c>
       <c r="M9">
-        <v>0.760803653</v>
+        <v>-0.954723074</v>
       </c>
       <c r="N9">
-        <v>0.5909344470000001</v>
+        <v>-0.998195754</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -836,234 +841,234 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>-0.99739022</v>
+        <v>1.094643399018502</v>
       </c>
       <c r="C10">
-        <v>-1.044367368</v>
+        <v>1.101882137686786</v>
       </c>
       <c r="D10">
-        <v>-0.257403776</v>
+        <v>0.4709733755715869</v>
       </c>
       <c r="E10">
-        <v>-0.641117242</v>
+        <v>-0.4020719832162958</v>
       </c>
       <c r="F10">
-        <v>-0.327644428</v>
+        <v>-0.7052569672553003</v>
       </c>
       <c r="G10">
-        <v>-0.6316913160000001</v>
+        <v>0.09245626484648782</v>
       </c>
       <c r="H10">
-        <v>-0.946657765</v>
+        <v>-0.5216657143317218</v>
       </c>
       <c r="I10">
-        <v>0.004275653</v>
+        <v>-0.3281604552256813</v>
       </c>
       <c r="J10">
-        <v>-0.192466388</v>
+        <v>-0.2864920851604906</v>
       </c>
       <c r="K10">
-        <v>-0.08695338800000001</v>
+        <v>-0.9857800539694438</v>
       </c>
       <c r="L10">
-        <v>-0.768136523</v>
+        <v>-1.641664543780156</v>
       </c>
       <c r="M10">
-        <v>-0.682079214</v>
+        <v>-1.845427672699681</v>
       </c>
       <c r="N10">
-        <v>-0.197684867</v>
+        <v>-2.278601876292415</v>
       </c>
       <c r="O10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="B11">
-        <v>-0.91530745</v>
+        <v>-1.19437130875863</v>
       </c>
       <c r="C11">
-        <v>-0.9979805559999999</v>
+        <v>-1.078026913031073</v>
       </c>
       <c r="D11">
-        <v>-0.523872417</v>
+        <v>-0.3049963347416466</v>
       </c>
       <c r="E11">
-        <v>-0.976319705</v>
+        <v>-0.07212513921239919</v>
       </c>
       <c r="F11">
-        <v>-0.8952650640000001</v>
+        <v>-0.06961754444327398</v>
       </c>
       <c r="G11">
-        <v>-1.324571288</v>
+        <v>0.6308661979454721</v>
       </c>
       <c r="H11">
-        <v>-1.719107671</v>
+        <v>-0.1521643363436272</v>
       </c>
       <c r="I11">
-        <v>-0.550999856</v>
+        <v>-0.07875494489787163</v>
       </c>
       <c r="J11">
-        <v>-0.437918474</v>
+        <v>-0.2237598292629923</v>
       </c>
       <c r="K11">
-        <v>-0.472426078</v>
+        <v>0.4475188326029005</v>
       </c>
       <c r="L11">
-        <v>-0.404784155</v>
+        <v>0.6411787843847678</v>
       </c>
       <c r="M11">
-        <v>-0.242404456</v>
+        <v>0.6353283155454125</v>
       </c>
       <c r="N11">
-        <v>0.183227009</v>
+        <v>0.7388856250757565</v>
       </c>
       <c r="O11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.904154899</v>
+        <v>-1.053461550083322</v>
       </c>
       <c r="C12">
-        <v>-0.994189992</v>
+        <v>-1.013951085727377</v>
       </c>
       <c r="D12">
-        <v>-0.6108602870000001</v>
+        <v>-1.670975857646011</v>
       </c>
       <c r="E12">
-        <v>-1.097473341</v>
+        <v>-2.305474877223224</v>
       </c>
       <c r="F12">
-        <v>-0.621446199</v>
+        <v>-1.061541930846145</v>
       </c>
       <c r="G12">
-        <v>-0.5322143</v>
+        <v>-1.097802694772028</v>
       </c>
       <c r="H12">
-        <v>-1.051977434</v>
+        <v>-0.2332301376733607</v>
       </c>
       <c r="I12">
-        <v>-0.558942678</v>
+        <v>0.2441601328574322</v>
       </c>
       <c r="J12">
-        <v>-0.362767975</v>
+        <v>0.3523387254212044</v>
       </c>
       <c r="K12">
-        <v>0.07955117</v>
+        <v>-0.2489324891736348</v>
       </c>
       <c r="L12">
-        <v>-0.356056375</v>
+        <v>-0.502001930595651</v>
       </c>
       <c r="M12">
-        <v>-0.323068986</v>
+        <v>-0.6653240106200277</v>
       </c>
       <c r="N12">
-        <v>-0.116068191</v>
+        <v>-0.3590114128251046</v>
       </c>
       <c r="O12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B13">
-        <v>-0.8783562009999999</v>
+        <v>-0.9801136137722205</v>
       </c>
       <c r="C13">
-        <v>-0.923094414</v>
+        <v>-1.041956232283092</v>
       </c>
       <c r="D13">
-        <v>-0.3693644</v>
+        <v>-0.1886708569035639</v>
       </c>
       <c r="E13">
-        <v>-1.100426871</v>
+        <v>0.03187326138358325</v>
       </c>
       <c r="F13">
-        <v>-1.138038789</v>
+        <v>0.02696679057833097</v>
       </c>
       <c r="G13">
-        <v>-1.229120102</v>
+        <v>0.4139021714331789</v>
       </c>
       <c r="H13">
-        <v>-0.8194121059999999</v>
+        <v>-0.2537263285459994</v>
       </c>
       <c r="I13">
-        <v>-0.268659695</v>
+        <v>-0.7238580530731326</v>
       </c>
       <c r="J13">
-        <v>-1.427792866</v>
+        <v>-0.8867859043564654</v>
       </c>
       <c r="K13">
-        <v>0.031881964</v>
+        <v>-0.4421644275965932</v>
       </c>
       <c r="L13">
-        <v>0.166904972</v>
+        <v>0.5141295735833261</v>
       </c>
       <c r="M13">
-        <v>0.107673083</v>
+        <v>0.4309079702258571</v>
       </c>
       <c r="N13">
-        <v>-0.07716648400000001</v>
+        <v>0.6473643899869618</v>
       </c>
       <c r="O13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B14">
-        <v>-1.052360446</v>
+        <v>1.072868344028555</v>
       </c>
       <c r="C14">
-        <v>-1.116420485</v>
+        <v>1.091538332336232</v>
       </c>
       <c r="D14">
-        <v>-1.102244233</v>
+        <v>0.3042911969933322</v>
       </c>
       <c r="E14">
-        <v>-2.994605003</v>
+        <v>-0.2724865124992262</v>
       </c>
       <c r="F14">
-        <v>-2.034215286</v>
+        <v>-0.3512468597734175</v>
       </c>
       <c r="G14">
-        <v>-1.796524334</v>
+        <v>-0.3825242695846054</v>
       </c>
       <c r="H14">
-        <v>-1.041387772</v>
+        <v>-0.7500268382046689</v>
       </c>
       <c r="I14">
-        <v>-0.212968827</v>
+        <v>-0.1192132643449346</v>
       </c>
       <c r="J14">
-        <v>0.294011831</v>
+        <v>0.04048841683108379</v>
       </c>
       <c r="K14">
-        <v>0.103498634</v>
+        <v>-0.8202640382566929</v>
       </c>
       <c r="L14">
-        <v>-0.09137593400000001</v>
+        <v>-1.346983711401946</v>
       </c>
       <c r="M14">
-        <v>-0.624227593</v>
+        <v>-1.411314067857623</v>
       </c>
       <c r="N14">
-        <v>-0.321369264</v>
+        <v>-1.57754363631294</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -1071,93 +1076,93 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="B15">
-        <v>0.07822931499999999</v>
+        <v>1.200056980136892</v>
       </c>
       <c r="C15">
-        <v>0.151495312</v>
+        <v>1.123243570411099</v>
       </c>
       <c r="D15">
-        <v>1.035268356</v>
+        <v>-0.55241059474163</v>
       </c>
       <c r="E15">
-        <v>0.818492707</v>
+        <v>-1.036721346042088</v>
       </c>
       <c r="F15">
-        <v>0.761922832</v>
+        <v>-0.9308365164426041</v>
       </c>
       <c r="G15">
-        <v>0.711030598</v>
+        <v>0.1155780199142884</v>
       </c>
       <c r="H15">
-        <v>0.308770327</v>
+        <v>0.2663936930680734</v>
       </c>
       <c r="I15">
-        <v>0.224557443</v>
+        <v>0.02870485741260834</v>
       </c>
       <c r="J15">
-        <v>0.8063795420000001</v>
+        <v>-0.602788081833072</v>
       </c>
       <c r="K15">
-        <v>0.653018652</v>
+        <v>-1.192180913668596</v>
       </c>
       <c r="L15">
-        <v>0.740708748</v>
+        <v>-2.247474818272565</v>
       </c>
       <c r="M15">
-        <v>0.7185147479999999</v>
+        <v>-2.537178146746713</v>
       </c>
       <c r="N15">
-        <v>0.759500988</v>
+        <v>-2.569831016425473</v>
       </c>
       <c r="O15">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B16">
-        <v>0.07741835799999999</v>
+        <v>-1.086428005086563</v>
       </c>
       <c r="C16">
-        <v>0.142089174</v>
+        <v>-1.048940204306952</v>
       </c>
       <c r="D16">
-        <v>0.175422308</v>
+        <v>-0.3037085230292412</v>
       </c>
       <c r="E16">
-        <v>-0.429356961</v>
+        <v>-0.5075381501870235</v>
       </c>
       <c r="F16">
-        <v>-0.596137143</v>
+        <v>-0.3825490135370849</v>
       </c>
       <c r="G16">
-        <v>0.282600545</v>
+        <v>0.3063538071488328</v>
       </c>
       <c r="H16">
-        <v>-0.416819943</v>
+        <v>-0.4863859495967527</v>
       </c>
       <c r="I16">
-        <v>-0.122727689</v>
+        <v>-0.8085205678689006</v>
       </c>
       <c r="J16">
-        <v>-0.193826556</v>
+        <v>-0.1611184624233239</v>
       </c>
       <c r="K16">
-        <v>-0.809834961</v>
+        <v>-0.389149139676343</v>
       </c>
       <c r="L16">
-        <v>-2.247024834</v>
+        <v>0.4269320376255717</v>
       </c>
       <c r="M16">
-        <v>-2.729378196</v>
+        <v>0.412404593541803</v>
       </c>
       <c r="N16">
-        <v>-2.948248672</v>
+        <v>0.3870140607780911</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -1165,93 +1170,93 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="B17">
-        <v>-0.821300411</v>
+        <v>1.083936345210007</v>
       </c>
       <c r="C17">
-        <v>-1.014632861</v>
+        <v>1.093264700238166</v>
       </c>
       <c r="D17">
-        <v>-1.981244592</v>
+        <v>0.1483705827004671</v>
       </c>
       <c r="E17">
-        <v>-1.156186993</v>
+        <v>-0.2229674175134839</v>
       </c>
       <c r="F17">
-        <v>-1.287938408</v>
+        <v>-0.4549054893864045</v>
       </c>
       <c r="G17">
-        <v>-1.166454397</v>
+        <v>0.213315262424153</v>
       </c>
       <c r="H17">
-        <v>-0.655523532</v>
+        <v>-0.5341985581575719</v>
       </c>
       <c r="I17">
-        <v>-1.007756938</v>
+        <v>-0.0575880076469479</v>
       </c>
       <c r="J17">
-        <v>-0.37337708</v>
+        <v>-0.3098117486188885</v>
       </c>
       <c r="K17">
-        <v>-0.09231866599999999</v>
+        <v>-0.9285690794037499</v>
       </c>
       <c r="L17">
-        <v>-0.440427241</v>
+        <v>-1.478019162058223</v>
       </c>
       <c r="M17">
-        <v>-0.437639847</v>
+        <v>-1.50507127255204</v>
       </c>
       <c r="N17">
-        <v>-0.251829257</v>
+        <v>-1.83833156063562</v>
       </c>
       <c r="O17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.079846809</v>
+        <v>1.10031152465143</v>
       </c>
       <c r="C18">
-        <v>0.153009772</v>
+        <v>1.125797866822876</v>
       </c>
       <c r="D18">
-        <v>0.9862225490000001</v>
+        <v>1.545843024994026</v>
       </c>
       <c r="E18">
-        <v>0.638104751</v>
+        <v>1.504082509945178</v>
       </c>
       <c r="F18">
-        <v>0.324303721</v>
+        <v>1.122528232643397</v>
       </c>
       <c r="G18">
-        <v>1.212977673</v>
+        <v>1.548915202151974</v>
       </c>
       <c r="H18">
-        <v>-0.018508783</v>
+        <v>0.8025128693472742</v>
       </c>
       <c r="I18">
-        <v>-0.406158339</v>
+        <v>0.07323898237231517</v>
       </c>
       <c r="J18">
-        <v>0.919169809</v>
+        <v>0.9544067233236763</v>
       </c>
       <c r="K18">
-        <v>0.291060984</v>
+        <v>1.029574337668288</v>
       </c>
       <c r="L18">
-        <v>0.399475769</v>
+        <v>0.863701457389054</v>
       </c>
       <c r="M18">
-        <v>0.461708297</v>
+        <v>0.8929892270118991</v>
       </c>
       <c r="N18">
-        <v>0.609240468</v>
+        <v>0.832755712623328</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -1259,140 +1264,140 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="B19">
-        <v>-0.868938978</v>
+        <v>0.09852779099999999</v>
       </c>
       <c r="C19">
-        <v>-0.903555324</v>
+        <v>0.16546092</v>
       </c>
       <c r="D19">
-        <v>0.127182638</v>
+        <v>-0.387068551</v>
       </c>
       <c r="E19">
-        <v>0.798898755</v>
+        <v>-1.193796124</v>
       </c>
       <c r="F19">
-        <v>1.262248758</v>
+        <v>-0.973299646</v>
       </c>
       <c r="G19">
-        <v>0.584137343</v>
+        <v>0.158243594</v>
       </c>
       <c r="H19">
-        <v>1.136266708</v>
+        <v>-0.246942094</v>
       </c>
       <c r="I19">
-        <v>0.818111872</v>
+        <v>-0.06937636599999999</v>
       </c>
       <c r="J19">
-        <v>0.876253136</v>
+        <v>0.302392297</v>
       </c>
       <c r="K19">
-        <v>1.17246319</v>
+        <v>0.218392693</v>
       </c>
       <c r="L19">
-        <v>0.7751725420000001</v>
+        <v>-1.0860507</v>
       </c>
       <c r="M19">
-        <v>0.335496805</v>
+        <v>-1.240671693</v>
       </c>
       <c r="N19">
-        <v>0.436208815</v>
+        <v>-1.706251922</v>
       </c>
       <c r="O19">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B20">
-        <v>0.084514785</v>
+        <v>-1.113243525</v>
       </c>
       <c r="C20">
-        <v>0.158664541</v>
+        <v>-1.218439747</v>
       </c>
       <c r="D20">
-        <v>1.255127339</v>
+        <v>-0.46169408</v>
       </c>
       <c r="E20">
-        <v>1.338850758</v>
+        <v>-0.506681916</v>
       </c>
       <c r="F20">
-        <v>1.651653511</v>
+        <v>-0.141881335</v>
       </c>
       <c r="G20">
-        <v>1.838477983</v>
+        <v>0.22744881</v>
       </c>
       <c r="H20">
-        <v>1.76996833</v>
+        <v>-0.997138382</v>
       </c>
       <c r="I20">
-        <v>1.724213095</v>
+        <v>-1.313530996</v>
       </c>
       <c r="J20">
-        <v>1.669531759</v>
+        <v>-0.829717461</v>
       </c>
       <c r="K20">
-        <v>1.780583401</v>
+        <v>-0.556270676</v>
       </c>
       <c r="L20">
-        <v>1.244663889</v>
+        <v>-0.016803582</v>
       </c>
       <c r="M20">
-        <v>0.8648448559999999</v>
+        <v>-0.136466835</v>
       </c>
       <c r="N20">
-        <v>0.839562017</v>
+        <v>0.219988164</v>
       </c>
       <c r="O20">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B21">
-        <v>-1.162809267</v>
+        <v>-1.055854725900243</v>
       </c>
       <c r="C21">
-        <v>-1.230742598</v>
+        <v>-1.043857128591573</v>
       </c>
       <c r="D21">
-        <v>-0.481548895</v>
+        <v>0.08008694714120397</v>
       </c>
       <c r="E21">
-        <v>-0.48584958</v>
+        <v>-0.02730576384251986</v>
       </c>
       <c r="F21">
-        <v>-0.43719234</v>
+        <v>-0.7143039660170445</v>
       </c>
       <c r="G21">
-        <v>0.114115978</v>
+        <v>-0.1907540138987979</v>
       </c>
       <c r="H21">
-        <v>-0.77417708</v>
+        <v>-1.113948930867908</v>
       </c>
       <c r="I21">
-        <v>-1.367703306</v>
+        <v>-2.508387785427131</v>
       </c>
       <c r="J21">
-        <v>-0.7770090820000001</v>
+        <v>-2.232404621923703</v>
       </c>
       <c r="K21">
-        <v>-0.805050077</v>
+        <v>-1.409142096510839</v>
       </c>
       <c r="L21">
-        <v>-0.044871051</v>
+        <v>-0.9824501776076258</v>
       </c>
       <c r="M21">
-        <v>0.152162831</v>
+        <v>-0.3448688291525704</v>
       </c>
       <c r="N21">
-        <v>0.264317159</v>
+        <v>-0.3788933834068122</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -1400,46 +1405,46 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B22">
-        <v>-1.141932472</v>
+        <v>1.088939164971538</v>
       </c>
       <c r="C22">
-        <v>-1.221148477</v>
+        <v>1.114007099254873</v>
       </c>
       <c r="D22">
-        <v>-0.426689527</v>
+        <v>1.505535086262952</v>
       </c>
       <c r="E22">
-        <v>-0.461117216</v>
+        <v>1.274909500010257</v>
       </c>
       <c r="F22">
-        <v>-0.579265161</v>
+        <v>0.7372024500956524</v>
       </c>
       <c r="G22">
-        <v>0.270686893</v>
+        <v>0.3132537485907945</v>
       </c>
       <c r="H22">
-        <v>-0.70467633</v>
+        <v>-0.2245104712473723</v>
       </c>
       <c r="I22">
-        <v>-0.798898595</v>
+        <v>-0.973146095410975</v>
       </c>
       <c r="J22">
-        <v>-0.428320732</v>
+        <v>-0.2844009935843861</v>
       </c>
       <c r="K22">
-        <v>-0.182561075</v>
+        <v>-0.3342313002334562</v>
       </c>
       <c r="L22">
-        <v>-0.119375763</v>
+        <v>-0.1871809827410486</v>
       </c>
       <c r="M22">
-        <v>-0.010168513</v>
+        <v>0.4864870791719206</v>
       </c>
       <c r="N22">
-        <v>0.310122034</v>
+        <v>0.3280512481424334</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -1447,93 +1452,93 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B23">
-        <v>-0.9819434020000001</v>
+        <v>1.099775790379993</v>
       </c>
       <c r="C23">
-        <v>-1.027168868</v>
+        <v>1.11148176529921</v>
       </c>
       <c r="D23">
-        <v>-0.391420759</v>
+        <v>-0.5489209653702813</v>
       </c>
       <c r="E23">
-        <v>-1.071957494</v>
+        <v>-0.8191994201361262</v>
       </c>
       <c r="F23">
-        <v>-1.015058936</v>
+        <v>-0.9025962383959351</v>
       </c>
       <c r="G23">
-        <v>-1.251488744</v>
+        <v>0.223645672125488</v>
       </c>
       <c r="H23">
-        <v>-1.889056123</v>
+        <v>0.1132448909009576</v>
       </c>
       <c r="I23">
-        <v>-0.649593132</v>
+        <v>0.1868157248384813</v>
       </c>
       <c r="J23">
-        <v>-0.321722455</v>
+        <v>0.0204934599467502</v>
       </c>
       <c r="K23">
-        <v>-0.310259495</v>
+        <v>-0.8699339960484994</v>
       </c>
       <c r="L23">
-        <v>-0.362302266</v>
+        <v>-1.755689742685045</v>
       </c>
       <c r="M23">
-        <v>-0.24811692</v>
+        <v>-2.070665450570241</v>
       </c>
       <c r="N23">
-        <v>0.142904433</v>
+        <v>-2.193631830993823</v>
       </c>
       <c r="O23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B24">
-        <v>-0.9950186759999999</v>
+        <v>1.166366923530732</v>
       </c>
       <c r="C24">
-        <v>-1.14275891</v>
+        <v>1.171328757342247</v>
       </c>
       <c r="D24">
-        <v>-0.8379565390000001</v>
+        <v>0.5827860207734993</v>
       </c>
       <c r="E24">
-        <v>-1.356096241</v>
+        <v>0.4108057590436257</v>
       </c>
       <c r="F24">
-        <v>-1.482855771</v>
+        <v>0.3932572171297033</v>
       </c>
       <c r="G24">
-        <v>-0.116152378</v>
+        <v>0.6190600618550959</v>
       </c>
       <c r="H24">
-        <v>-1.960741118</v>
+        <v>0.02511801987241887</v>
       </c>
       <c r="I24">
-        <v>-2.808609729</v>
+        <v>-0.1132104775990814</v>
       </c>
       <c r="J24">
-        <v>-1.937638123</v>
+        <v>0.3416050667229145</v>
       </c>
       <c r="K24">
-        <v>-2.478579661</v>
+        <v>0.8805552907233581</v>
       </c>
       <c r="L24">
-        <v>-1.538677731</v>
+        <v>-0.04132196133939446</v>
       </c>
       <c r="M24">
-        <v>-0.954723074</v>
+        <v>-0.1429684093437469</v>
       </c>
       <c r="N24">
-        <v>-0.998195754</v>
+        <v>-0.3536635950920322</v>
       </c>
       <c r="O24">
         <v>1</v>
@@ -1541,93 +1546,93 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B25">
-        <v>-0.711425353</v>
+        <v>1.100174680673551</v>
       </c>
       <c r="C25">
-        <v>-0.9343438340000001</v>
+        <v>1.124891968315829</v>
       </c>
       <c r="D25">
-        <v>-1.009101299</v>
+        <v>1.483209165833856</v>
       </c>
       <c r="E25">
-        <v>-1.408925905</v>
+        <v>0.7787091994039962</v>
       </c>
       <c r="F25">
-        <v>-1.18965624</v>
+        <v>0.08101460793328968</v>
       </c>
       <c r="G25">
-        <v>-1.288777596</v>
+        <v>0.488666944720673</v>
       </c>
       <c r="H25">
-        <v>-0.8448173609999999</v>
+        <v>-0.1966393176758857</v>
       </c>
       <c r="I25">
-        <v>-0.527876189</v>
+        <v>-0.4678460142387856</v>
       </c>
       <c r="J25">
-        <v>-0.3716407779999999</v>
+        <v>-0.3410258939533991</v>
       </c>
       <c r="K25">
-        <v>0.015925782</v>
+        <v>0.2207665569780954</v>
       </c>
       <c r="L25">
-        <v>-0.165041375</v>
+        <v>0.5615617936015691</v>
       </c>
       <c r="M25">
-        <v>-0.339435971</v>
+        <v>0.8131312290919488</v>
       </c>
       <c r="N25">
-        <v>-0.446035021</v>
+        <v>0.7310462283360522</v>
       </c>
       <c r="O25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B26">
-        <v>-1.127000987</v>
+        <v>-1.005739675522768</v>
       </c>
       <c r="C26">
-        <v>-1.215312036</v>
+        <v>-0.9927105995991264</v>
       </c>
       <c r="D26">
-        <v>-0.037873563</v>
+        <v>-0.5731486671661947</v>
       </c>
       <c r="E26">
-        <v>-0.562175674</v>
+        <v>-0.4313369448365606</v>
       </c>
       <c r="F26">
-        <v>-0.8470366429999999</v>
+        <v>-0.3701910237508414</v>
       </c>
       <c r="G26">
-        <v>-0.242125185</v>
+        <v>-0.9848614482848906</v>
       </c>
       <c r="H26">
-        <v>-1.213146434</v>
+        <v>-0.7639824390420538</v>
       </c>
       <c r="I26">
-        <v>-2.185331135</v>
+        <v>-1.050756326561519</v>
       </c>
       <c r="J26">
-        <v>-1.757604094</v>
+        <v>-0.8828776551155924</v>
       </c>
       <c r="K26">
-        <v>-1.07386601</v>
+        <v>-1.632105296501672</v>
       </c>
       <c r="L26">
-        <v>-0.8201677059999999</v>
+        <v>-0.6426670720087221</v>
       </c>
       <c r="M26">
-        <v>-0.591433485</v>
+        <v>-0.8131151142837448</v>
       </c>
       <c r="N26">
-        <v>-0.536829724</v>
+        <v>-0.248792943512092</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -1635,93 +1640,93 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B27">
-        <v>-0.7631417740000001</v>
+        <v>-1.052360446</v>
       </c>
       <c r="C27">
-        <v>-0.991416842</v>
+        <v>-1.116420485</v>
       </c>
       <c r="D27">
-        <v>-1.728020811</v>
+        <v>-1.102244233</v>
       </c>
       <c r="E27">
-        <v>-1.267533204</v>
+        <v>-2.994605003</v>
       </c>
       <c r="F27">
-        <v>-1.312166553</v>
+        <v>-2.034215286</v>
       </c>
       <c r="G27">
-        <v>-1.363899306</v>
+        <v>-1.796524334</v>
       </c>
       <c r="H27">
-        <v>-0.637526636</v>
+        <v>-1.041387772</v>
       </c>
       <c r="I27">
-        <v>-1.027801767</v>
+        <v>-0.212968827</v>
       </c>
       <c r="J27">
-        <v>-0.054326016</v>
+        <v>0.294011831</v>
       </c>
       <c r="K27">
-        <v>-0.158473473</v>
+        <v>0.103498634</v>
       </c>
       <c r="L27">
-        <v>-0.624076615</v>
+        <v>-0.09137593400000001</v>
       </c>
       <c r="M27">
-        <v>-0.587237452</v>
+        <v>-0.624227593</v>
       </c>
       <c r="N27">
-        <v>-0.296155219</v>
+        <v>-0.321369264</v>
       </c>
       <c r="O27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="1">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B28">
-        <v>-1.094796451</v>
+        <v>0.07068416400000001</v>
       </c>
       <c r="C28">
-        <v>-1.190877641</v>
+        <v>0.138736066</v>
       </c>
       <c r="D28">
-        <v>-1.543898323</v>
+        <v>-0.204276498</v>
       </c>
       <c r="E28">
-        <v>-2.754580523</v>
+        <v>-1.114777687</v>
       </c>
       <c r="F28">
-        <v>-1.24670348</v>
+        <v>-0.406118652</v>
       </c>
       <c r="G28">
-        <v>-0.971300759</v>
+        <v>-0.116919603</v>
       </c>
       <c r="H28">
-        <v>-0.472069864</v>
+        <v>-0.77556961</v>
       </c>
       <c r="I28">
-        <v>-0.012476197</v>
+        <v>-0.753092723</v>
       </c>
       <c r="J28">
-        <v>0.167750694</v>
+        <v>-0.081520195</v>
       </c>
       <c r="K28">
-        <v>-0.348151486</v>
+        <v>-0.04744215099999999</v>
       </c>
       <c r="L28">
-        <v>-0.931505048</v>
+        <v>-0.6686181839999999</v>
       </c>
       <c r="M28">
-        <v>-1.24850931</v>
+        <v>-1.066334195</v>
       </c>
       <c r="N28">
-        <v>-0.85369462</v>
+        <v>-1.382999643</v>
       </c>
       <c r="O28">
         <v>1</v>
@@ -1729,46 +1734,46 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.140979797</v>
+        <v>-0.9673902202431353</v>
       </c>
       <c r="C29">
-        <v>0.158923788</v>
+        <v>-1.005585475346329</v>
       </c>
       <c r="D29">
-        <v>-0.6198813129999999</v>
+        <v>0.01336928259588351</v>
       </c>
       <c r="E29">
-        <v>-1.489728403</v>
+        <v>-0.03144927010491952</v>
       </c>
       <c r="F29">
-        <v>-1.124546287</v>
+        <v>-0.8290864447953518</v>
       </c>
       <c r="G29">
-        <v>0.152552372</v>
+        <v>-0.3559431232112886</v>
       </c>
       <c r="H29">
-        <v>-0.033078703</v>
+        <v>-1.188186603427425</v>
       </c>
       <c r="I29">
-        <v>-0.201372831</v>
+        <v>-2.503584584696504</v>
       </c>
       <c r="J29">
-        <v>-0.6058585470000001</v>
+        <v>-2.388757987935037</v>
       </c>
       <c r="K29">
-        <v>-1.198801193</v>
+        <v>-1.560003476310523</v>
       </c>
       <c r="L29">
-        <v>-2.78347609</v>
+        <v>-0.9705462612823146</v>
       </c>
       <c r="M29">
-        <v>-3.429045395</v>
+        <v>-0.4379119648592557</v>
       </c>
       <c r="N29">
-        <v>-3.673258711</v>
+        <v>-0.6418788257929507</v>
       </c>
       <c r="O29">
         <v>1</v>
@@ -1776,281 +1781,281 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="1">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="B30">
-        <v>0.09273416400000001</v>
+        <v>0.078267607</v>
       </c>
       <c r="C30">
-        <v>0.167730306</v>
+        <v>0.147016056</v>
       </c>
       <c r="D30">
-        <v>1.336888192</v>
+        <v>-0.099193434</v>
       </c>
       <c r="E30">
-        <v>1.37678494</v>
+        <v>-0.9932849579999999</v>
       </c>
       <c r="F30">
-        <v>1.727839705</v>
+        <v>-0.36166605</v>
       </c>
       <c r="G30">
-        <v>1.780657985</v>
+        <v>0.204833342</v>
       </c>
       <c r="H30">
-        <v>1.71084308</v>
+        <v>-0.837582409</v>
       </c>
       <c r="I30">
-        <v>1.737646294</v>
+        <v>-0.6419876839999999</v>
       </c>
       <c r="J30">
-        <v>1.672063467</v>
+        <v>-0.254815942</v>
       </c>
       <c r="K30">
-        <v>2.101930869</v>
+        <v>-0.379259574</v>
       </c>
       <c r="L30">
-        <v>1.598622792</v>
+        <v>-1.062085395</v>
       </c>
       <c r="M30">
-        <v>1.344010916</v>
+        <v>-1.581943415</v>
       </c>
       <c r="N30">
-        <v>1.350692732</v>
+        <v>-1.785023628</v>
       </c>
       <c r="O30">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B31">
-        <v>-0.937696286</v>
+        <v>-0.9103000148347813</v>
       </c>
       <c r="C31">
-        <v>-1.015591623</v>
+        <v>-0.9223494728167898</v>
       </c>
       <c r="D31">
-        <v>-0.608602128</v>
+        <v>-0.5716677430742187</v>
       </c>
       <c r="E31">
-        <v>-1.158174718</v>
+        <v>-0.5613486401924029</v>
       </c>
       <c r="F31">
-        <v>-0.8048887790000001</v>
+        <v>-0.6914806177992953</v>
       </c>
       <c r="G31">
-        <v>-1.24772037</v>
+        <v>-0.9984038341118507</v>
       </c>
       <c r="H31">
-        <v>-1.271167965</v>
+        <v>-0.6627300149905576</v>
       </c>
       <c r="I31">
-        <v>-0.246935819</v>
+        <v>-0.4974200133050791</v>
       </c>
       <c r="J31">
-        <v>-0.041770972</v>
+        <v>-0.5370491767398732</v>
       </c>
       <c r="K31">
-        <v>-0.280753298</v>
+        <v>-1.867691432370808</v>
       </c>
       <c r="L31">
-        <v>-0.46378129</v>
+        <v>-0.6599232319367194</v>
       </c>
       <c r="M31">
-        <v>-0.296611509</v>
+        <v>-0.6570274036274688</v>
       </c>
       <c r="N31">
-        <v>-0.032517665</v>
+        <v>-0.2184158976441948</v>
       </c>
       <c r="O31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="B32">
-        <v>-1.009499734</v>
+        <v>1.09260717879037</v>
       </c>
       <c r="C32">
-        <v>-1.041842626</v>
+        <v>1.10528016275872</v>
       </c>
       <c r="D32">
-        <v>-0.117342216</v>
+        <v>-0.5052371728717996</v>
       </c>
       <c r="E32">
-        <v>-1.035326542</v>
+        <v>-1.213035656723745</v>
       </c>
       <c r="F32">
-        <v>-0.985592347</v>
+        <v>-0.9397964201281946</v>
       </c>
       <c r="G32">
-        <v>-1.225041544</v>
+        <v>-0.07632542278754005</v>
       </c>
       <c r="H32">
-        <v>-1.82159154</v>
+        <v>-0.1814666348577954</v>
       </c>
       <c r="I32">
-        <v>-0.498876049</v>
+        <v>-0.08897598996320968</v>
       </c>
       <c r="J32">
-        <v>-0.452698551</v>
+        <v>-0.1461574093903557</v>
       </c>
       <c r="K32">
-        <v>-0.268809496</v>
+        <v>-0.5692170635129519</v>
       </c>
       <c r="L32">
-        <v>-0.456453431</v>
+        <v>-1.400241450620395</v>
       </c>
       <c r="M32">
-        <v>-0.306272618</v>
+        <v>-1.52723548122241</v>
       </c>
       <c r="N32">
-        <v>-0.116752009</v>
+        <v>-1.861333063595394</v>
       </c>
       <c r="O32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="1">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="B33">
-        <v>0.08546618</v>
+        <v>-0.7850529723340682</v>
       </c>
       <c r="C33">
-        <v>0.15974573</v>
+        <v>-0.994829505998485</v>
       </c>
       <c r="D33">
-        <v>1.265599166</v>
+        <v>-0.4444060106629628</v>
       </c>
       <c r="E33">
-        <v>1.391344408</v>
+        <v>0.01395821871105908</v>
       </c>
       <c r="F33">
-        <v>1.795126402</v>
+        <v>0.1440835049216894</v>
       </c>
       <c r="G33">
-        <v>1.920778911</v>
+        <v>0.2219221699496867</v>
       </c>
       <c r="H33">
-        <v>1.977386849</v>
+        <v>0.08726601248583762</v>
       </c>
       <c r="I33">
-        <v>1.805822632</v>
+        <v>-0.3457620323046026</v>
       </c>
       <c r="J33">
-        <v>1.583318936</v>
+        <v>-1.072472517418809</v>
       </c>
       <c r="K33">
-        <v>1.720186303</v>
+        <v>-0.235482468348901</v>
       </c>
       <c r="L33">
-        <v>1.292990795</v>
+        <v>0.6886012919951494</v>
       </c>
       <c r="M33">
-        <v>1.075191374</v>
+        <v>0.5676827717999983</v>
       </c>
       <c r="N33">
-        <v>0.996886872</v>
+        <v>0.6074982798371817</v>
       </c>
       <c r="O33">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B34">
-        <v>-0.8111281140000001</v>
+        <v>0.080138772</v>
       </c>
       <c r="C34">
-        <v>-0.930828965</v>
+        <v>0.152574184</v>
       </c>
       <c r="D34">
-        <v>-0.711871047</v>
+        <v>1.080125462</v>
       </c>
       <c r="E34">
-        <v>-1.733722485</v>
+        <v>0.455753224</v>
       </c>
       <c r="F34">
-        <v>-1.36797488</v>
+        <v>-0.494340361</v>
       </c>
       <c r="G34">
-        <v>-1.200410171</v>
+        <v>0.115745779</v>
       </c>
       <c r="H34">
-        <v>-1.310562454</v>
+        <v>-1.64103004</v>
       </c>
       <c r="I34">
-        <v>-1.099713921</v>
+        <v>-1.689385246</v>
       </c>
       <c r="J34">
-        <v>-0.9786102390000001</v>
+        <v>-0.9455622859999999</v>
       </c>
       <c r="K34">
-        <v>-0.351656679</v>
+        <v>-0.857492658</v>
       </c>
       <c r="L34">
-        <v>-0.361479619</v>
+        <v>-1.499750307</v>
       </c>
       <c r="M34">
-        <v>-0.408172901</v>
+        <v>-0.505977107</v>
       </c>
       <c r="N34">
-        <v>0.024080929</v>
+        <v>-0.66795561</v>
       </c>
       <c r="O34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="1">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B35">
-        <v>-1.213848933</v>
+        <v>-1.042198087</v>
       </c>
       <c r="C35">
-        <v>-1.260223287</v>
+        <v>-1.196787822</v>
       </c>
       <c r="D35">
-        <v>-0.238721744</v>
+        <v>-0.4783288429999999</v>
       </c>
       <c r="E35">
-        <v>-0.5010421829999999</v>
+        <v>-0.29351785</v>
       </c>
       <c r="F35">
-        <v>-0.128168838</v>
+        <v>0.07789871299999999</v>
       </c>
       <c r="G35">
-        <v>0.606900394</v>
+        <v>0.589451356</v>
       </c>
       <c r="H35">
-        <v>0.248181286</v>
+        <v>-0.249145236</v>
       </c>
       <c r="I35">
-        <v>-0.068352202</v>
+        <v>-0.273429519</v>
       </c>
       <c r="J35">
-        <v>-0.6534519879999999</v>
+        <v>-0.084926801</v>
       </c>
       <c r="K35">
-        <v>0.300338616</v>
+        <v>-0.34367782</v>
       </c>
       <c r="L35">
-        <v>0.7914288490000001</v>
+        <v>0.118776451</v>
       </c>
       <c r="M35">
-        <v>0.8097702940000001</v>
+        <v>0.012452516</v>
       </c>
       <c r="N35">
-        <v>1.06577869</v>
+        <v>0.271643513</v>
       </c>
       <c r="O35">
         <v>1</v>
@@ -2058,46 +2063,46 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B36">
-        <v>-1.005338656</v>
+        <v>-1.026889296893872</v>
       </c>
       <c r="C36">
-        <v>-1.186736776</v>
+        <v>-1.068168151236766</v>
       </c>
       <c r="D36">
-        <v>-0.781800568</v>
+        <v>-1.775428978864936</v>
       </c>
       <c r="E36">
-        <v>-0.344946589</v>
+        <v>0.6479086483204765</v>
       </c>
       <c r="F36">
-        <v>-0.08112894700000001</v>
+        <v>1.360141857411562</v>
       </c>
       <c r="G36">
-        <v>0.689557905</v>
+        <v>1.769383499330046</v>
       </c>
       <c r="H36">
-        <v>-0.11757962</v>
+        <v>2.081743525537156</v>
       </c>
       <c r="I36">
-        <v>-0.453053243</v>
+        <v>1.485068561234677</v>
       </c>
       <c r="J36">
-        <v>-0.081728176</v>
+        <v>1.473653895776652</v>
       </c>
       <c r="K36">
-        <v>-0.318629317</v>
+        <v>1.576054995210785</v>
       </c>
       <c r="L36">
-        <v>0.019810485</v>
+        <v>1.316609464567598</v>
       </c>
       <c r="M36">
-        <v>0.175715326</v>
+        <v>1.121050447312544</v>
       </c>
       <c r="N36">
-        <v>0.403158154</v>
+        <v>0.8834742640828863</v>
       </c>
       <c r="O36">
         <v>1</v>
@@ -2105,46 +2110,46 @@
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="1">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B37">
-        <v>0.07068416400000001</v>
+        <v>-1.270561510282354</v>
       </c>
       <c r="C37">
-        <v>0.138736066</v>
+        <v>-1.123748824026904</v>
       </c>
       <c r="D37">
-        <v>-0.204276498</v>
+        <v>-0.09099933402576334</v>
       </c>
       <c r="E37">
-        <v>-1.114777687</v>
+        <v>-0.04498554308108361</v>
       </c>
       <c r="F37">
-        <v>-0.406118652</v>
+        <v>0.1352646616835821</v>
       </c>
       <c r="G37">
-        <v>-0.116919603</v>
+        <v>0.6061199888280842</v>
       </c>
       <c r="H37">
-        <v>-0.77556961</v>
+        <v>0.5865008059729586</v>
       </c>
       <c r="I37">
-        <v>-0.753092723</v>
+        <v>0.1804280281973176</v>
       </c>
       <c r="J37">
-        <v>-0.081520195</v>
+        <v>-0.6615487182621481</v>
       </c>
       <c r="K37">
-        <v>-0.04744215099999999</v>
+        <v>0.4701499509641796</v>
       </c>
       <c r="L37">
-        <v>-0.6686181839999999</v>
+        <v>1.121854132091655</v>
       </c>
       <c r="M37">
-        <v>-1.066334195</v>
+        <v>1.101580566908483</v>
       </c>
       <c r="N37">
-        <v>-1.382999643</v>
+        <v>1.146047200980204</v>
       </c>
       <c r="O37">
         <v>1</v>
@@ -2155,231 +2160,231 @@
         <v>10</v>
       </c>
       <c r="B38">
-        <v>0.068718052</v>
+        <v>0.08650412199999999</v>
       </c>
       <c r="C38">
-        <v>0.135924307</v>
+        <v>0.16076415</v>
       </c>
       <c r="D38">
-        <v>-0.397392081</v>
+        <v>1.287529653</v>
       </c>
       <c r="E38">
-        <v>-1.031961151</v>
+        <v>1.458507674</v>
       </c>
       <c r="F38">
-        <v>-0.153897081</v>
+        <v>1.708264452</v>
       </c>
       <c r="G38">
-        <v>0.141923944</v>
+        <v>1.737302749</v>
       </c>
       <c r="H38">
-        <v>-0.09817292</v>
+        <v>1.454654867</v>
       </c>
       <c r="I38">
-        <v>0.027253499</v>
+        <v>1.685926169</v>
       </c>
       <c r="J38">
-        <v>0.300797822</v>
+        <v>1.198936477</v>
       </c>
       <c r="K38">
-        <v>0.373804826</v>
+        <v>1.009485194</v>
       </c>
       <c r="L38">
-        <v>-0.9805031190000001</v>
+        <v>0.6228660539999999</v>
       </c>
       <c r="M38">
-        <v>-0.9644059559999999</v>
+        <v>0.391809069</v>
       </c>
       <c r="N38">
-        <v>-0.7646438</v>
+        <v>0.180105296</v>
       </c>
       <c r="O38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.085987965</v>
+        <v>-0.6587686476668195</v>
       </c>
       <c r="C39">
-        <v>0.151495311</v>
+        <v>-0.5899591788793388</v>
       </c>
       <c r="D39">
-        <v>-0.616998623</v>
+        <v>-0.249148302360412</v>
       </c>
       <c r="E39">
-        <v>-1.272875356</v>
+        <v>-0.6462190212175658</v>
       </c>
       <c r="F39">
-        <v>-1.098152942</v>
+        <v>-0.9452731862934791</v>
       </c>
       <c r="G39">
-        <v>0.252646405</v>
+        <v>-1.37616025773129</v>
       </c>
       <c r="H39">
-        <v>-0.167641881</v>
+        <v>-0.6285466655301897</v>
       </c>
       <c r="I39">
-        <v>-0.062751901</v>
+        <v>-0.04804245941326161</v>
       </c>
       <c r="J39">
-        <v>-0.101028867</v>
+        <v>-1.617578831830315</v>
       </c>
       <c r="K39">
-        <v>-0.9081892620000001</v>
+        <v>0.172470057630375</v>
       </c>
       <c r="L39">
-        <v>-2.261685276</v>
+        <v>0.5332436893316265</v>
       </c>
       <c r="M39">
-        <v>-2.885601465</v>
+        <v>0.4988739309514078</v>
       </c>
       <c r="N39">
-        <v>-3.193473878</v>
+        <v>0.2498641333261364</v>
       </c>
       <c r="O39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="1">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B40">
-        <v>0.122504967</v>
+        <v>-0.5361738494167755</v>
       </c>
       <c r="C40">
-        <v>0.189293251</v>
+        <v>-0.6022056032123437</v>
       </c>
       <c r="D40">
-        <v>0.317874415</v>
+        <v>-0.6637684159533999</v>
       </c>
       <c r="E40">
-        <v>-0.046652437</v>
+        <v>-1.281468022930134</v>
       </c>
       <c r="F40">
-        <v>0.112950832</v>
+        <v>-1.19129956691345</v>
       </c>
       <c r="G40">
-        <v>0.618885702</v>
+        <v>-1.34516325675806</v>
       </c>
       <c r="H40">
-        <v>-0.245073971</v>
+        <v>-1.187533816384802</v>
       </c>
       <c r="I40">
-        <v>-0.325794612</v>
+        <v>-0.9959419183968182</v>
       </c>
       <c r="J40">
-        <v>0.159056919</v>
+        <v>-1.063001216074302</v>
       </c>
       <c r="K40">
-        <v>0.670454455</v>
+        <v>-0.2528192450821991</v>
       </c>
       <c r="L40">
-        <v>-0.442717185</v>
+        <v>0.03524401388272994</v>
       </c>
       <c r="M40">
-        <v>-0.640013586</v>
+        <v>0.05605234895739079</v>
       </c>
       <c r="N40">
-        <v>-0.8468742920000001</v>
+        <v>0.3292522083086188</v>
       </c>
       <c r="O40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="1">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B41">
-        <v>-1.080224856</v>
+        <v>-0.8979174274012933</v>
       </c>
       <c r="C41">
-        <v>-1.225119853</v>
+        <v>-0.7779779782818683</v>
       </c>
       <c r="D41">
-        <v>-1.630184268</v>
+        <v>0.05593619008166591</v>
       </c>
       <c r="E41">
-        <v>0.189721362</v>
+        <v>-0.5809178915489024</v>
       </c>
       <c r="F41">
-        <v>1.016600571</v>
+        <v>-0.7821589652917296</v>
       </c>
       <c r="G41">
-        <v>1.684334148</v>
+        <v>-1.371756796563258</v>
       </c>
       <c r="H41">
-        <v>1.561966372</v>
+        <v>-1.769145320785033</v>
       </c>
       <c r="I41">
-        <v>1.075468504</v>
+        <v>-0.3106269582083702</v>
       </c>
       <c r="J41">
-        <v>1.075964945</v>
+        <v>-0.4136910413304782</v>
       </c>
       <c r="K41">
-        <v>1.297676939</v>
+        <v>-0.160953610855165</v>
       </c>
       <c r="L41">
-        <v>0.998066969</v>
+        <v>-0.05426830036290738</v>
       </c>
       <c r="M41">
-        <v>0.832450895</v>
+        <v>0.1435273820550567</v>
       </c>
       <c r="N41">
-        <v>0.7309068520000001</v>
+        <v>0.218825131599535</v>
       </c>
       <c r="O41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="1">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>-0.9229714659999999</v>
+        <v>-0.919161658980819</v>
       </c>
       <c r="C42">
-        <v>-0.993167921</v>
+        <v>-0.8073186373325625</v>
       </c>
       <c r="D42">
-        <v>-1.10187603</v>
+        <v>-0.2369043189585125</v>
       </c>
       <c r="E42">
-        <v>-0.932714037</v>
+        <v>-0.1306206275658121</v>
       </c>
       <c r="F42">
-        <v>-0.973339356</v>
+        <v>-0.3418214988752323</v>
       </c>
       <c r="G42">
-        <v>-1.205753535</v>
+        <v>-0.7097587855449301</v>
       </c>
       <c r="H42">
-        <v>-0.9152577240000001</v>
+        <v>-0.7481708997481297</v>
       </c>
       <c r="I42">
-        <v>-0.6697975900000001</v>
+        <v>-0.1072356765855643</v>
       </c>
       <c r="J42">
-        <v>-1.050948601</v>
+        <v>-0.4783533649410584</v>
       </c>
       <c r="K42">
-        <v>-1.003364957</v>
+        <v>-0.1427410814653182</v>
       </c>
       <c r="L42">
-        <v>-0.567307032</v>
+        <v>-0.1186835104734037</v>
       </c>
       <c r="M42">
-        <v>-0.50628744</v>
+        <v>0.04245004054847714</v>
       </c>
       <c r="N42">
-        <v>-0.377202144</v>
+        <v>0.2336191711862206</v>
       </c>
       <c r="O42">
         <v>2</v>
@@ -2387,657 +2392,657 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B43">
-        <v>-1.096108812</v>
+        <v>1.111451598599303</v>
       </c>
       <c r="C43">
-        <v>-1.209765588</v>
+        <v>1.136392748737821</v>
       </c>
       <c r="D43">
-        <v>-0.09739191800000001</v>
+        <v>1.770323683697913</v>
       </c>
       <c r="E43">
-        <v>-0.483416769</v>
+        <v>1.839798253287589</v>
       </c>
       <c r="F43">
-        <v>-0.92217511</v>
+        <v>1.906589665015582</v>
       </c>
       <c r="G43">
-        <v>-0.131177385</v>
+        <v>1.755579248136567</v>
       </c>
       <c r="H43">
-        <v>-1.245907583</v>
+        <v>2.071705795316775</v>
       </c>
       <c r="I43">
-        <v>-2.425724309</v>
+        <v>1.810535277144203</v>
       </c>
       <c r="J43">
-        <v>-1.925773772</v>
+        <v>2.025092362298967</v>
       </c>
       <c r="K43">
-        <v>-1.394463292</v>
+        <v>1.429419814459808</v>
       </c>
       <c r="L43">
-        <v>-1.441267329</v>
+        <v>0.9060945211182935</v>
       </c>
       <c r="M43">
-        <v>-0.8752088090000001</v>
+        <v>0.7190996471420843</v>
       </c>
       <c r="N43">
-        <v>-0.8790510490000001</v>
+        <v>0.4742136444231485</v>
       </c>
       <c r="O43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="1">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>0.09128681</v>
+        <v>-0.7058142549057081</v>
       </c>
       <c r="C44">
-        <v>0.144062975</v>
+        <v>-0.7025276545915364</v>
       </c>
       <c r="D44">
-        <v>-0.47097633</v>
+        <v>-0.541490226165994</v>
       </c>
       <c r="E44">
-        <v>-1.317384446</v>
+        <v>-0.643256381113085</v>
       </c>
       <c r="F44">
-        <v>-1.298226515</v>
+        <v>-0.3925308802898654</v>
       </c>
       <c r="G44">
-        <v>-0.08273587</v>
+        <v>-0.6237380445659647</v>
       </c>
       <c r="H44">
-        <v>-0.192406299</v>
+        <v>-0.8932334984229325</v>
       </c>
       <c r="I44">
-        <v>-0.351406428</v>
+        <v>-0.3791388836047595</v>
       </c>
       <c r="J44">
-        <v>-0.6297029470000001</v>
+        <v>-0.3026593998025327</v>
       </c>
       <c r="K44">
-        <v>-1.561908259</v>
+        <v>0.2253283647413016</v>
       </c>
       <c r="L44">
-        <v>-2.682682404</v>
+        <v>0.04035539259793583</v>
       </c>
       <c r="M44">
-        <v>-2.908725845</v>
+        <v>0.1291087484314329</v>
       </c>
       <c r="N44">
-        <v>-3.171733628</v>
+        <v>0.2193613131477823</v>
       </c>
       <c r="O44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="1">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B45">
-        <v>0.4530453820000001</v>
+        <v>1.099009546529016</v>
       </c>
       <c r="C45">
-        <v>0.5533775329999999</v>
+        <v>1.124777955165825</v>
       </c>
       <c r="D45">
-        <v>-0.017240231</v>
+        <v>1.774375743720006</v>
       </c>
       <c r="E45">
-        <v>-0.389027078</v>
+        <v>1.826443209590612</v>
       </c>
       <c r="F45">
-        <v>0.242216412</v>
+        <v>1.861942271669599</v>
       </c>
       <c r="G45">
-        <v>-0.222609288</v>
+        <v>1.754504325485726</v>
       </c>
       <c r="H45">
-        <v>0.344838761</v>
+        <v>1.869475902913908</v>
       </c>
       <c r="I45">
-        <v>0.7974024390000001</v>
+        <v>2.081409686851183</v>
       </c>
       <c r="J45">
-        <v>0.19036583</v>
+        <v>2.088039948814781</v>
       </c>
       <c r="K45">
-        <v>-0.01238466</v>
+        <v>1.36533470713817</v>
       </c>
       <c r="L45">
-        <v>-0.306273377</v>
+        <v>0.7129714198099999</v>
       </c>
       <c r="M45">
-        <v>-0.20150938</v>
+        <v>0.6119382425483066</v>
       </c>
       <c r="N45">
-        <v>0.049260658</v>
+        <v>0.3911665654316454</v>
       </c>
       <c r="O45">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="1">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.080138772</v>
+        <v>-0.915313197917203</v>
       </c>
       <c r="C46">
-        <v>0.152574184</v>
+        <v>-0.8002599253251903</v>
       </c>
       <c r="D46">
-        <v>1.080125462</v>
+        <v>-0.4858008915469419</v>
       </c>
       <c r="E46">
-        <v>0.455753224</v>
+        <v>-0.459102613136871</v>
       </c>
       <c r="F46">
-        <v>-0.494340361</v>
+        <v>-0.3886572214119309</v>
       </c>
       <c r="G46">
-        <v>0.115745779</v>
+        <v>-1.131570294461621</v>
       </c>
       <c r="H46">
-        <v>-1.64103004</v>
+        <v>-0.4310121901661068</v>
       </c>
       <c r="I46">
-        <v>-1.689385246</v>
+        <v>0.1352166989295445</v>
       </c>
       <c r="J46">
-        <v>-0.9455622859999999</v>
+        <v>0.0321162105799529</v>
       </c>
       <c r="K46">
-        <v>-0.857492658</v>
+        <v>0.2689214043482228</v>
       </c>
       <c r="L46">
-        <v>-1.499750307</v>
+        <v>0.1719394788427852</v>
       </c>
       <c r="M46">
-        <v>-0.505977107</v>
+        <v>0.01614742187502364</v>
       </c>
       <c r="N46">
-        <v>-0.66795561</v>
+        <v>0.2079486552789812</v>
       </c>
       <c r="O46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="1">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>-0.898339942</v>
+        <v>-0.554723695977998</v>
       </c>
       <c r="C47">
-        <v>-0.9166695420000001</v>
+        <v>-0.7348956677261104</v>
       </c>
       <c r="D47">
-        <v>-0.124501255</v>
+        <v>-2.200403713486279</v>
       </c>
       <c r="E47">
-        <v>0.389349156</v>
+        <v>-0.7021511342036996</v>
       </c>
       <c r="F47">
-        <v>1.017939856</v>
+        <v>-1.10566236468863</v>
       </c>
       <c r="G47">
-        <v>1.065573911</v>
+        <v>-1.308502522194651</v>
       </c>
       <c r="H47">
-        <v>1.109928244</v>
+        <v>-0.4420220964019494</v>
       </c>
       <c r="I47">
-        <v>0.875583775</v>
+        <v>-0.8910558932634112</v>
       </c>
       <c r="J47">
-        <v>0.875780095</v>
+        <v>-0.3157577963177772</v>
       </c>
       <c r="K47">
-        <v>1.330532029</v>
+        <v>0.03474938647192169</v>
       </c>
       <c r="L47">
-        <v>1.080667858</v>
+        <v>-0.03916370126099611</v>
       </c>
       <c r="M47">
-        <v>0.87872014</v>
+        <v>0.03075681492401491</v>
       </c>
       <c r="N47">
-        <v>0.4082125</v>
+        <v>0.1129110901943352</v>
       </c>
       <c r="O47">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="1">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B48">
-        <v>-1.075959248</v>
+        <v>-0.9229714659999999</v>
       </c>
       <c r="C48">
-        <v>-1.148089415</v>
+        <v>-0.993167921</v>
       </c>
       <c r="D48">
-        <v>-1.29033459</v>
+        <v>-1.10187603</v>
       </c>
       <c r="E48">
-        <v>-0.4561949702537312</v>
+        <v>-0.932714037</v>
       </c>
       <c r="F48">
-        <v>-1.658406479</v>
+        <v>-0.973339356</v>
       </c>
       <c r="G48">
-        <v>-0.478718335</v>
+        <v>-1.205753535</v>
       </c>
       <c r="H48">
-        <v>-0.405491016</v>
+        <v>-0.9152577240000001</v>
       </c>
       <c r="I48">
-        <v>-0.294614211</v>
+        <v>-0.6697975900000001</v>
       </c>
       <c r="J48">
-        <v>-0.097444049</v>
+        <v>-1.050948601</v>
       </c>
       <c r="K48">
-        <v>-0.581121552</v>
+        <v>-1.003364957</v>
       </c>
       <c r="L48">
-        <v>-1.390411525</v>
+        <v>-0.567307032</v>
       </c>
       <c r="M48">
-        <v>-1.808725387</v>
+        <v>-0.50628744</v>
       </c>
       <c r="N48">
-        <v>-1.013263883</v>
+        <v>-0.377202144</v>
       </c>
       <c r="O48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="1">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-1.04759697</v>
+        <v>-0.8758349393820211</v>
       </c>
       <c r="C49">
-        <v>-1.18559412</v>
+        <v>-0.7819755033952668</v>
       </c>
       <c r="D49">
-        <v>-0.152505606</v>
+        <v>-0.1136147965221389</v>
       </c>
       <c r="E49">
-        <v>-0.487547534</v>
+        <v>-0.185492660811697</v>
       </c>
       <c r="F49">
-        <v>-1.029450738</v>
+        <v>-0.0781696765984117</v>
       </c>
       <c r="G49">
-        <v>-0.284178249</v>
+        <v>-0.7311395274105609</v>
       </c>
       <c r="H49">
-        <v>-1.311136021</v>
+        <v>-0.7733672661317547</v>
       </c>
       <c r="I49">
-        <v>-2.421513187</v>
+        <v>0.2632672729876283</v>
       </c>
       <c r="J49">
-        <v>-2.052412882</v>
+        <v>-0.09239871205352695</v>
       </c>
       <c r="K49">
-        <v>-1.530514607</v>
+        <v>0.04069870965258254</v>
       </c>
       <c r="L49">
-        <v>-1.428637108</v>
+        <v>-0.3480279619857963</v>
       </c>
       <c r="M49">
-        <v>-0.9835954140000001</v>
+        <v>-0.1790791255580886</v>
       </c>
       <c r="N49">
-        <v>-1.214448975</v>
+        <v>0.1553656948685382</v>
       </c>
       <c r="O49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B50">
-        <v>-0.910313292</v>
+        <v>-0.5031267873620944</v>
       </c>
       <c r="C50">
-        <v>-1.15848515</v>
+        <v>-0.4125820585901417</v>
       </c>
       <c r="D50">
-        <v>-1.259229058</v>
+        <v>-0.4975811134962422</v>
       </c>
       <c r="E50">
-        <v>-0.805998625</v>
+        <v>-0.5815604153064552</v>
       </c>
       <c r="F50">
-        <v>-0.358941927</v>
+        <v>-0.6835680324312</v>
       </c>
       <c r="G50">
-        <v>0.325726794</v>
+        <v>-1.205899921065125</v>
       </c>
       <c r="H50">
-        <v>-0.247567924</v>
+        <v>-0.6826016225277307</v>
       </c>
       <c r="I50">
-        <v>-0.9535645699999999</v>
+        <v>-0.2292902732726747</v>
       </c>
       <c r="J50">
-        <v>-0.379365554</v>
+        <v>-0.8948344109368738</v>
       </c>
       <c r="K50">
-        <v>-0.669414201</v>
+        <v>-0.007449831650845497</v>
       </c>
       <c r="L50">
-        <v>0.05102243099999999</v>
+        <v>0.4038165380176302</v>
       </c>
       <c r="M50">
-        <v>0.189273845</v>
+        <v>0.5467531448900661</v>
       </c>
       <c r="N50">
-        <v>0.361967262</v>
+        <v>0.519080717140059</v>
       </c>
       <c r="O50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="1">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.080622786</v>
+        <v>-0.7793201447851573</v>
       </c>
       <c r="C51">
-        <v>0.154271503</v>
+        <v>-0.7641680769041393</v>
       </c>
       <c r="D51">
-        <v>1.052969999</v>
+        <v>-0.1373161709966192</v>
       </c>
       <c r="E51">
-        <v>0.517767667</v>
+        <v>-0.5157793548528704</v>
       </c>
       <c r="F51">
-        <v>0.752075066</v>
+        <v>-0.6002931355539566</v>
       </c>
       <c r="G51">
-        <v>0.9454800720000001</v>
+        <v>-1.67811316486203</v>
       </c>
       <c r="H51">
-        <v>0.065823466</v>
+        <v>-0.7886626517494122</v>
       </c>
       <c r="I51">
-        <v>-0.132380308</v>
+        <v>-0.05977216767743269</v>
       </c>
       <c r="J51">
-        <v>0.313243192</v>
+        <v>-0.4360563659777525</v>
       </c>
       <c r="K51">
-        <v>0.385286684</v>
+        <v>0.1416679478734595</v>
       </c>
       <c r="L51">
-        <v>0.744983141</v>
+        <v>0.05463082821942517</v>
       </c>
       <c r="M51">
-        <v>0.751686429</v>
+        <v>0.1510674308330556</v>
       </c>
       <c r="N51">
-        <v>0.821401707</v>
+        <v>0.3819369017459451</v>
       </c>
       <c r="O51">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B52">
-        <v>-1.172068029</v>
+        <v>-0.4486676309063777</v>
       </c>
       <c r="C52">
-        <v>-1.231346413</v>
+        <v>-0.6981368151440918</v>
       </c>
       <c r="D52">
-        <v>-0.415498974</v>
+        <v>-1.893864632384399</v>
       </c>
       <c r="E52">
-        <v>-0.528098325</v>
+        <v>-0.8138407903746437</v>
       </c>
       <c r="F52">
-        <v>-0.319651611</v>
+        <v>-1.131585928047311</v>
       </c>
       <c r="G52">
-        <v>0.629820739</v>
+        <v>-1.521676146207622</v>
       </c>
       <c r="H52">
-        <v>-0.400841936</v>
+        <v>-0.421539501489349</v>
       </c>
       <c r="I52">
-        <v>-0.295586328</v>
+        <v>-0.9139190013134963</v>
       </c>
       <c r="J52">
-        <v>-0.298862914</v>
+        <v>0.078154540762746</v>
       </c>
       <c r="K52">
-        <v>0.279929195</v>
+        <v>-0.03860679876158272</v>
       </c>
       <c r="L52">
-        <v>0.281425611</v>
+        <v>-0.2122522625214683</v>
       </c>
       <c r="M52">
-        <v>0.266629758</v>
+        <v>-0.09766339219853593</v>
       </c>
       <c r="N52">
-        <v>0.546506038</v>
+        <v>0.07815511282505004</v>
       </c>
       <c r="O52">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="1">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B53">
-        <v>-1.042198087</v>
+        <v>-0.8999088371623735</v>
       </c>
       <c r="C53">
-        <v>-1.196787822</v>
+        <v>-0.7979083676895516</v>
       </c>
       <c r="D53">
-        <v>-0.4783288429999999</v>
+        <v>-0.3777293800015497</v>
       </c>
       <c r="E53">
-        <v>-0.29351785</v>
+        <v>-0.4738492208868103</v>
       </c>
       <c r="F53">
-        <v>0.07789871299999999</v>
+        <v>-0.4220898121785666</v>
       </c>
       <c r="G53">
-        <v>0.589451356</v>
+        <v>-0.6004718027471426</v>
       </c>
       <c r="H53">
-        <v>-0.249145236</v>
+        <v>-1.011272578681248</v>
       </c>
       <c r="I53">
-        <v>-0.273429519</v>
+        <v>0.1028459493065351</v>
       </c>
       <c r="J53">
-        <v>-0.084926801</v>
+        <v>0.3114022967378419</v>
       </c>
       <c r="K53">
-        <v>-0.34367782</v>
+        <v>0.1371577873176834</v>
       </c>
       <c r="L53">
-        <v>0.118776451</v>
+        <v>-0.03766079638830301</v>
       </c>
       <c r="M53">
-        <v>0.012452516</v>
+        <v>0.1002645347072279</v>
       </c>
       <c r="N53">
-        <v>0.271643513</v>
+        <v>0.2894954110783645</v>
       </c>
       <c r="O53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B54">
-        <v>-0.947607537</v>
+        <v>-0.5773369837013437</v>
       </c>
       <c r="C54">
-        <v>-1.178800905</v>
+        <v>-0.7008086824709544</v>
       </c>
       <c r="D54">
-        <v>-0.530661599</v>
+        <v>-1.04388155837972</v>
       </c>
       <c r="E54">
-        <v>-0.442279673</v>
+        <v>-0.889075565958088</v>
       </c>
       <c r="F54">
-        <v>-0.119926753</v>
+        <v>-0.4777298958116295</v>
       </c>
       <c r="G54">
-        <v>0.251050069</v>
+        <v>-0.7205425914449428</v>
       </c>
       <c r="H54">
-        <v>-0.19046805</v>
+        <v>-0.7971610748256895</v>
       </c>
       <c r="I54">
-        <v>-0.529680109</v>
+        <v>-0.008196996251951846</v>
       </c>
       <c r="J54">
-        <v>-0.9862815620000001</v>
+        <v>-1.049105483397343</v>
       </c>
       <c r="K54">
-        <v>-0.336021854</v>
+        <v>-0.1228300179444196</v>
       </c>
       <c r="L54">
-        <v>0.331741552</v>
+        <v>0.0830021749573447</v>
       </c>
       <c r="M54">
-        <v>0.187828987</v>
+        <v>0.2045357481978724</v>
       </c>
       <c r="N54">
-        <v>0.378941466</v>
+        <v>0.269263486568356</v>
       </c>
       <c r="O54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B55">
-        <v>-1.006864232</v>
+        <v>-0.865035972</v>
       </c>
       <c r="C55">
-        <v>-1.108058247</v>
+        <v>-0.96684552</v>
       </c>
       <c r="D55">
-        <v>-0.590029536</v>
+        <v>-1.121615431</v>
       </c>
       <c r="E55">
-        <v>-1.287556619</v>
+        <v>-1.222799638</v>
       </c>
       <c r="F55">
-        <v>-0.9905247140000001</v>
+        <v>-1.61779278</v>
       </c>
       <c r="G55">
-        <v>-1.114759293</v>
+        <v>-1.413328853</v>
       </c>
       <c r="H55">
-        <v>-1.146811974</v>
+        <v>-1.485734227</v>
       </c>
       <c r="I55">
-        <v>-1.051094819</v>
+        <v>-1.599473251</v>
       </c>
       <c r="J55">
-        <v>-0.67380046</v>
+        <v>-1.243944798</v>
       </c>
       <c r="K55">
-        <v>-1.842751563</v>
+        <v>-1.126462166</v>
       </c>
       <c r="L55">
-        <v>-1.116504002</v>
+        <v>-1.652334645</v>
       </c>
       <c r="M55">
-        <v>-1.349809168</v>
+        <v>-1.414603224</v>
       </c>
       <c r="N55">
-        <v>-1.011023727</v>
+        <v>-1.03612878</v>
       </c>
       <c r="O55">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="1">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B56">
-        <v>-0.7930058870000001</v>
+        <v>-0.9167942173156514</v>
       </c>
       <c r="C56">
-        <v>-0.811067234</v>
+        <v>-0.7983622906972034</v>
       </c>
       <c r="D56">
-        <v>-0.574588137</v>
+        <v>-0.3463885161076414</v>
       </c>
       <c r="E56">
-        <v>-1.03596709</v>
+        <v>-0.2925246386435077</v>
       </c>
       <c r="F56">
-        <v>-0.893449327</v>
+        <v>-0.2388017772728845</v>
       </c>
       <c r="G56">
-        <v>-1.071422184</v>
+        <v>-0.8738927839911461</v>
       </c>
       <c r="H56">
-        <v>-0.8669071350000001</v>
+        <v>-0.5171586558553265</v>
       </c>
       <c r="I56">
-        <v>-0.4275655370000001</v>
+        <v>-0.005231271684927365</v>
       </c>
       <c r="J56">
-        <v>-0.842402781</v>
+        <v>-0.08647683237934761</v>
       </c>
       <c r="K56">
-        <v>-0.130375186</v>
+        <v>0.2162005355603337</v>
       </c>
       <c r="L56">
-        <v>0.029580962</v>
+        <v>0.06964811838250541</v>
       </c>
       <c r="M56">
-        <v>0.163447917</v>
+        <v>0.08906687651761719</v>
       </c>
       <c r="N56">
-        <v>0.266178315</v>
+        <v>0.2931941909013876</v>
       </c>
       <c r="O56">
         <v>2</v>
@@ -3045,93 +3050,93 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="1">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B57">
-        <v>0.086281749</v>
+        <v>1.096238245355187</v>
       </c>
       <c r="C57">
-        <v>0.160537021</v>
+        <v>1.122197823394524</v>
       </c>
       <c r="D57">
-        <v>1.113430189</v>
+        <v>1.764672723384655</v>
       </c>
       <c r="E57">
-        <v>1.043262493</v>
+        <v>1.827487871922402</v>
       </c>
       <c r="F57">
-        <v>0.794527036</v>
+        <v>2.008445880543528</v>
       </c>
       <c r="G57">
-        <v>1.480132793</v>
+        <v>1.846010285619154</v>
       </c>
       <c r="H57">
-        <v>0.437978851</v>
+        <v>1.950469512267986</v>
       </c>
       <c r="I57">
-        <v>-0.162328318</v>
+        <v>2.133535249668735</v>
       </c>
       <c r="J57">
-        <v>0.655398369</v>
+        <v>1.99184019627173</v>
       </c>
       <c r="K57">
-        <v>0.8048442990000001</v>
+        <v>1.292239576654942</v>
       </c>
       <c r="L57">
-        <v>0.517525266</v>
+        <v>0.7390544770735202</v>
       </c>
       <c r="M57">
-        <v>0.566780771</v>
+        <v>0.6137580100524108</v>
       </c>
       <c r="N57">
-        <v>0.666223055</v>
+        <v>0.4598840357654877</v>
       </c>
       <c r="O57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="1">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B58">
-        <v>-1.010591776</v>
+        <v>-0.9819434020000001</v>
       </c>
       <c r="C58">
-        <v>-1.054430187</v>
+        <v>-1.027168868</v>
       </c>
       <c r="D58">
-        <v>-0.475581808</v>
+        <v>-0.391420759</v>
       </c>
       <c r="E58">
-        <v>-0.928587107</v>
+        <v>-1.071957494</v>
       </c>
       <c r="F58">
-        <v>-0.649071957</v>
+        <v>-1.015058936</v>
       </c>
       <c r="G58">
-        <v>-0.510664725</v>
+        <v>-1.251488744</v>
       </c>
       <c r="H58">
-        <v>-1.155691688</v>
+        <v>-1.889056123</v>
       </c>
       <c r="I58">
-        <v>-0.136370929</v>
+        <v>-0.649593132</v>
       </c>
       <c r="J58">
-        <v>0.13459405</v>
+        <v>-0.321722455</v>
       </c>
       <c r="K58">
-        <v>3.63e-05</v>
+        <v>-0.310259495</v>
       </c>
       <c r="L58">
-        <v>-0.438832638</v>
+        <v>-0.362302266</v>
       </c>
       <c r="M58">
-        <v>-0.356669814</v>
+        <v>-0.24811692</v>
       </c>
       <c r="N58">
-        <v>-0.026622818</v>
+        <v>0.142904433</v>
       </c>
       <c r="O58">
         <v>2</v>
@@ -3139,516 +3144,516 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="1">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="B59">
-        <v>0.09239070199999999</v>
+        <v>-0.6757168095219498</v>
       </c>
       <c r="C59">
-        <v>0.167228497</v>
+        <v>-0.566278154571567</v>
       </c>
       <c r="D59">
-        <v>1.29886769</v>
+        <v>-0.02184757585187174</v>
       </c>
       <c r="E59">
-        <v>1.377945912</v>
+        <v>1.15471996575391</v>
       </c>
       <c r="F59">
-        <v>1.527310327</v>
+        <v>1.293514406628115</v>
       </c>
       <c r="G59">
-        <v>1.671548424</v>
+        <v>1.016256889231027</v>
       </c>
       <c r="H59">
-        <v>1.553146787</v>
+        <v>1.571117827088738</v>
       </c>
       <c r="I59">
-        <v>1.360815739</v>
+        <v>1.418361831915044</v>
       </c>
       <c r="J59">
-        <v>1.522605004</v>
+        <v>1.303656926070735</v>
       </c>
       <c r="K59">
-        <v>1.165436937</v>
+        <v>1.545727637912644</v>
       </c>
       <c r="L59">
-        <v>0.5625048970000001</v>
+        <v>1.279839588104312</v>
       </c>
       <c r="M59">
-        <v>0.364215573</v>
+        <v>0.955765547941354</v>
       </c>
       <c r="N59">
-        <v>0.208957189</v>
+        <v>0.7031617110196291</v>
       </c>
       <c r="O59">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B60">
-        <v>0.097755729</v>
+        <v>0.084514785</v>
       </c>
       <c r="C60">
-        <v>0.150196918</v>
+        <v>0.158664541</v>
       </c>
       <c r="D60">
-        <v>-0.670648536</v>
+        <v>1.255127339</v>
       </c>
       <c r="E60">
-        <v>-1.593252783</v>
+        <v>1.338850758</v>
       </c>
       <c r="F60">
-        <v>-1.829066919</v>
+        <v>1.651653511</v>
       </c>
       <c r="G60">
-        <v>-0.082484553</v>
+        <v>1.838477983</v>
       </c>
       <c r="H60">
-        <v>-0.213239198</v>
+        <v>1.76996833</v>
       </c>
       <c r="I60">
-        <v>-0.003668579</v>
+        <v>1.724213095</v>
       </c>
       <c r="J60">
-        <v>-0.194428542</v>
+        <v>1.669531759</v>
       </c>
       <c r="K60">
-        <v>-0.929000237</v>
+        <v>1.780583401</v>
       </c>
       <c r="L60">
-        <v>-2.715263813</v>
+        <v>1.244663889</v>
       </c>
       <c r="M60">
-        <v>-3.459791333</v>
+        <v>0.8648448559999999</v>
       </c>
       <c r="N60">
-        <v>-3.414935158</v>
+        <v>0.839562017</v>
       </c>
       <c r="O60">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="1">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B61">
-        <v>-1.113243525</v>
+        <v>0.080592808</v>
       </c>
       <c r="C61">
-        <v>-1.218439747</v>
+        <v>0.154079561</v>
       </c>
       <c r="D61">
-        <v>-0.46169408</v>
+        <v>0.950204087</v>
       </c>
       <c r="E61">
-        <v>-0.506681916</v>
+        <v>0.5333746429999999</v>
       </c>
       <c r="F61">
-        <v>-0.141881335</v>
+        <v>0.669714496</v>
       </c>
       <c r="G61">
-        <v>0.22744881</v>
+        <v>1.32170149</v>
       </c>
       <c r="H61">
-        <v>-0.997138382</v>
+        <v>0.394812815</v>
       </c>
       <c r="I61">
-        <v>-1.313530996</v>
+        <v>0.060439413</v>
       </c>
       <c r="J61">
-        <v>-0.829717461</v>
+        <v>0.590968691</v>
       </c>
       <c r="K61">
-        <v>-0.556270676</v>
+        <v>0.584491591</v>
       </c>
       <c r="L61">
-        <v>-0.016803582</v>
+        <v>0.7292046520000001</v>
       </c>
       <c r="M61">
-        <v>-0.136466835</v>
+        <v>0.7106371220000001</v>
       </c>
       <c r="N61">
-        <v>0.219988164</v>
+        <v>0.752660914</v>
       </c>
       <c r="O61">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="1">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="B62">
-        <v>0.08205686800000001</v>
+        <v>-0.641595727756713</v>
       </c>
       <c r="C62">
-        <v>0.147578526</v>
+        <v>-0.5590221552278335</v>
       </c>
       <c r="D62">
-        <v>-0.580912604</v>
+        <v>0.3519448183223575</v>
       </c>
       <c r="E62">
-        <v>-1.665500548</v>
+        <v>1.25896503686056</v>
       </c>
       <c r="F62">
-        <v>-1.132920207</v>
+        <v>1.622979822911583</v>
       </c>
       <c r="G62">
-        <v>-0.025191746</v>
+        <v>0.5815436039527361</v>
       </c>
       <c r="H62">
-        <v>-0.426588206</v>
+        <v>1.597246989459927</v>
       </c>
       <c r="I62">
-        <v>-0.30454745</v>
+        <v>1.191527893722771</v>
       </c>
       <c r="J62">
-        <v>-0.236008486</v>
+        <v>1.227082251603201</v>
       </c>
       <c r="K62">
-        <v>-0.6369937170000001</v>
+        <v>1.437210920502419</v>
       </c>
       <c r="L62">
-        <v>-1.884549688</v>
+        <v>1.106532648937356</v>
       </c>
       <c r="M62">
-        <v>-2.252556061</v>
+        <v>0.6944463772260019</v>
       </c>
       <c r="N62">
-        <v>-2.76967735</v>
+        <v>0.6524015959985536</v>
       </c>
       <c r="O62">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="1">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="B63">
-        <v>-1.054574178</v>
+        <v>-0.6057004064306782</v>
       </c>
       <c r="C63">
-        <v>-1.208565027</v>
+        <v>-0.5377353754033299</v>
       </c>
       <c r="D63">
-        <v>-0.319405591</v>
+        <v>0.06023393650398268</v>
       </c>
       <c r="E63">
-        <v>-0.424419719</v>
+        <v>1.156450741882419</v>
       </c>
       <c r="F63">
-        <v>-0.229383956</v>
+        <v>1.695659991481</v>
       </c>
       <c r="G63">
-        <v>0.428865097</v>
+        <v>0.5459799358931066</v>
       </c>
       <c r="H63">
-        <v>-0.490078706</v>
+        <v>1.737616217432471</v>
       </c>
       <c r="I63">
-        <v>-0.8611691640000001</v>
+        <v>1.459572815406067</v>
       </c>
       <c r="J63">
-        <v>-0.835883857</v>
+        <v>1.27574394030813</v>
       </c>
       <c r="K63">
-        <v>-0.522413841</v>
+        <v>1.463114216622488</v>
       </c>
       <c r="L63">
-        <v>0.146624629</v>
+        <v>1.41933957798711</v>
       </c>
       <c r="M63">
-        <v>0.028499056</v>
+        <v>1.227404464743771</v>
       </c>
       <c r="N63">
-        <v>0.429784625</v>
+        <v>0.9388314252113402</v>
       </c>
       <c r="O63">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="1">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B64">
-        <v>0.08620670699999999</v>
+        <v>1.767476799750954</v>
       </c>
       <c r="C64">
-        <v>0.159964877</v>
+        <v>1.719572732766139</v>
       </c>
       <c r="D64">
-        <v>1.061690024</v>
+        <v>0.5124494562617685</v>
       </c>
       <c r="E64">
-        <v>0.320119702</v>
+        <v>0.2474918796273755</v>
       </c>
       <c r="F64">
-        <v>-0.178870902</v>
+        <v>0.8647481447148373</v>
       </c>
       <c r="G64">
-        <v>0.498113457</v>
+        <v>-0.1068313376663218</v>
       </c>
       <c r="H64">
-        <v>-0.4399195829999999</v>
+        <v>0.8351928056353854</v>
       </c>
       <c r="I64">
-        <v>-0.636715099</v>
+        <v>1.399842894027381</v>
       </c>
       <c r="J64">
-        <v>-0.393843089</v>
+        <v>0.6214225679271136</v>
       </c>
       <c r="K64">
-        <v>0.075437195</v>
+        <v>0.4213079031080128</v>
       </c>
       <c r="L64">
-        <v>0.196950875</v>
+        <v>0.6903432757278701</v>
       </c>
       <c r="M64">
-        <v>0.473753626</v>
+        <v>0.5862262624140758</v>
       </c>
       <c r="N64">
-        <v>0.5365080800000001</v>
+        <v>0.5405812696278836</v>
       </c>
       <c r="O64">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="1">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B65">
-        <v>-1.019039163</v>
+        <v>1.085627386433251</v>
       </c>
       <c r="C65">
-        <v>-1.055915375</v>
+        <v>1.11148176688255</v>
       </c>
       <c r="D65">
-        <v>-0.564856809</v>
+        <v>1.451224516533091</v>
       </c>
       <c r="E65">
-        <v>-0.913885845</v>
+        <v>1.278619426015391</v>
       </c>
       <c r="F65">
-        <v>-0.61782588</v>
+        <v>1.087642476917842</v>
       </c>
       <c r="G65">
-        <v>-1.002576864</v>
+        <v>0.7185453386044617</v>
       </c>
       <c r="H65">
-        <v>-0.645849751</v>
+        <v>0.6554582963616313</v>
       </c>
       <c r="I65">
-        <v>-0.107990442</v>
+        <v>0.5145204199332157</v>
       </c>
       <c r="J65">
-        <v>-0.091614968</v>
+        <v>1.140813707729122</v>
       </c>
       <c r="K65">
-        <v>0.11886468</v>
+        <v>0.8612214878968621</v>
       </c>
       <c r="L65">
-        <v>-0.216443827</v>
+        <v>1.074050705824186</v>
       </c>
       <c r="M65">
-        <v>-0.4546584320000001</v>
+        <v>1.023243376159998</v>
       </c>
       <c r="N65">
-        <v>-0.1306233</v>
+        <v>0.9058949200341383</v>
       </c>
       <c r="O65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="1">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B66">
-        <v>-0.94446379</v>
+        <v>1.769128913328402</v>
       </c>
       <c r="C66">
-        <v>-1.03312062</v>
+        <v>1.747797981004932</v>
       </c>
       <c r="D66">
-        <v>-0.276982851</v>
+        <v>0.1771142657631682</v>
       </c>
       <c r="E66">
-        <v>-0.9703883059999999</v>
+        <v>0.06737507028008589</v>
       </c>
       <c r="F66">
-        <v>-0.8156206640000001</v>
+        <v>0.5315684437311042</v>
       </c>
       <c r="G66">
-        <v>-1.50879384</v>
+        <v>-0.2894694997101463</v>
       </c>
       <c r="H66">
-        <v>-0.9600969540000001</v>
+        <v>0.6965084376056473</v>
       </c>
       <c r="I66">
-        <v>-0.278943511</v>
+        <v>1.167906739142954</v>
       </c>
       <c r="J66">
-        <v>-0.470813446</v>
+        <v>0.3802602153653779</v>
       </c>
       <c r="K66">
-        <v>0.004103698</v>
+        <v>0.1233847255575916</v>
       </c>
       <c r="L66">
-        <v>-0.340909939</v>
+        <v>0.08727560425655524</v>
       </c>
       <c r="M66">
-        <v>-0.297489162</v>
+        <v>0.2334600833358633</v>
       </c>
       <c r="N66">
-        <v>0.09127224099999999</v>
+        <v>0.3489956284579374</v>
       </c>
       <c r="O66">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="1">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="B67">
-        <v>0.077301988</v>
+        <v>1.089992036796757</v>
       </c>
       <c r="C67">
-        <v>0.139989845</v>
+        <v>1.115877421267073</v>
       </c>
       <c r="D67">
-        <v>-0.040984623</v>
+        <v>1.472653172869336</v>
       </c>
       <c r="E67">
-        <v>-0.678476764</v>
+        <v>0.9769668056168992</v>
       </c>
       <c r="F67">
-        <v>-0.679741467</v>
+        <v>1.077105591578809</v>
       </c>
       <c r="G67">
-        <v>0.24307821</v>
+        <v>0.9716713587872101</v>
       </c>
       <c r="H67">
-        <v>-0.736513768</v>
+        <v>0.3789560517995211</v>
       </c>
       <c r="I67">
-        <v>-0.277028587</v>
+        <v>0.1073976468595518</v>
       </c>
       <c r="J67">
-        <v>-0.3685610520000001</v>
+        <v>0.5319691870668779</v>
       </c>
       <c r="K67">
-        <v>-0.961068138</v>
+        <v>0.5643451650993567</v>
       </c>
       <c r="L67">
-        <v>-1.967072923</v>
+        <v>1.07807929856326</v>
       </c>
       <c r="M67">
-        <v>-2.226736818</v>
+        <v>1.051719193968867</v>
       </c>
       <c r="N67">
-        <v>-2.740342432</v>
+        <v>0.9544312606262834</v>
       </c>
       <c r="O67">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="1">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B68">
-        <v>0.085567775</v>
+        <v>-0.7336179890114634</v>
       </c>
       <c r="C68">
-        <v>0.159892869</v>
+        <v>-0.6330340809870234</v>
       </c>
       <c r="D68">
-        <v>1.302214989</v>
+        <v>0.437746830575072</v>
       </c>
       <c r="E68">
-        <v>1.364631935</v>
+        <v>1.551497794724363</v>
       </c>
       <c r="F68">
-        <v>1.485582903</v>
+        <v>1.975712776688091</v>
       </c>
       <c r="G68">
-        <v>1.670552813</v>
+        <v>1.483745140092169</v>
       </c>
       <c r="H68">
-        <v>1.375458835</v>
+        <v>2.222070360882922</v>
       </c>
       <c r="I68">
-        <v>1.598300127</v>
+        <v>1.758204011894149</v>
       </c>
       <c r="J68">
-        <v>1.573589684</v>
+        <v>1.907896469452871</v>
       </c>
       <c r="K68">
-        <v>1.107643066</v>
+        <v>2.009944246005889</v>
       </c>
       <c r="L68">
-        <v>0.357598597</v>
+        <v>1.72615690139475</v>
       </c>
       <c r="M68">
-        <v>0.239382497</v>
+        <v>1.362593704623914</v>
       </c>
       <c r="N68">
-        <v>0.103043273</v>
+        <v>1.013705344411343</v>
       </c>
       <c r="O68">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="1">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B69">
-        <v>0.08526797800000001</v>
+        <v>1.098824281425039</v>
       </c>
       <c r="C69">
-        <v>0.159124385</v>
+        <v>1.124544984094857</v>
       </c>
       <c r="D69">
-        <v>1.096342976</v>
+        <v>1.730050599012491</v>
       </c>
       <c r="E69">
-        <v>0.7303750640000001</v>
+        <v>1.85323807668174</v>
       </c>
       <c r="F69">
-        <v>0.8152742159999999</v>
+        <v>2.19314676580624</v>
       </c>
       <c r="G69">
-        <v>0.93322467</v>
+        <v>2.024663755796917</v>
       </c>
       <c r="H69">
-        <v>0.305302448</v>
+        <v>2.554541131790494</v>
       </c>
       <c r="I69">
-        <v>0.337106184</v>
+        <v>2.318109608543673</v>
       </c>
       <c r="J69">
-        <v>0.368742873</v>
+        <v>2.100052046017395</v>
       </c>
       <c r="K69">
-        <v>0.723300948</v>
+        <v>2.044557233732532</v>
       </c>
       <c r="L69">
-        <v>0.840594816</v>
+        <v>1.594573606845447</v>
       </c>
       <c r="M69">
-        <v>0.80725357</v>
+        <v>1.329427998478601</v>
       </c>
       <c r="N69">
-        <v>0.943935555</v>
+        <v>1.092029141150236</v>
       </c>
       <c r="O69">
         <v>3</v>
